--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s4_P1_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>822.74589764187</v>
+        <v>1095.520839222413</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.84392883905826</v>
+        <v>21.54549771016641</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.668113199446429</v>
+        <v>8.951113551215126</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.390082002251396</v>
+        <v>8.926455063461642</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>641.7700000000068</v>
+        <v>846</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.41</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,12 +617,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -835,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -896,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>25.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -912,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.07354493653836</v>
+        <v>21.04888644878487</v>
       </c>
     </row>
     <row r="6">
@@ -936,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.66154480832267</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -958,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,13 +1001,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1004,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1018,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1032,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1046,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1063,10 +1074,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1077,10 +1088,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1091,12 +1102,40 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1199,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
@@ -1210,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10">
@@ -1232,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11">
@@ -1243,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
@@ -1254,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>195.8750000000004</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1265,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>207.25</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -1276,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>211.4650000000004</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -1287,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>216.1350000000004</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -1298,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>208.9200000000004</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -1309,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>251.8700000000011</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
@@ -1320,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>265.65</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19">
@@ -1331,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>268.4700000000012</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
@@ -1342,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>269.9950000000011</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
@@ -1353,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>264.9</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
@@ -1364,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>119.3649999999998</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1375,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>131.3249999999998</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1386,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>122.1899999999998</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -1397,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>129.5699999999998</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -1408,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>130.3899999999998</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -1419,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1430,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1441,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1452,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1463,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1474,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.9950000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1485,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>105.5100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1496,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6650000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1507,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>104.5050000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1518,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>96.60500000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1529,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>251.8700000000011</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38">
@@ -1540,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>265.65</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
@@ -1551,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>268.4700000000012</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
@@ -1562,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>269.9950000000011</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41">
@@ -1573,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>264.9</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -1675,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>51.87000000000114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -1686,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>65.64999999999998</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -1697,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>68.47000000000116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -1708,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>69.99500000000114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
@@ -1719,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>64.89999999999998</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1832,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1843,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1854,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1865,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1931,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1942,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1953,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1964,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1975,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1986,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1997,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2008,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2019,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2030,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2071,10 +2110,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2082,10 +2121,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2093,10 +2132,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2104,10 +2143,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2115,10 +2154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2129,7 +2168,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2140,7 +2179,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2151,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2162,9 +2201,20 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
